--- a/config_Release/jika_config.xlsx
+++ b/config_Release/jika_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="base" sheetId="5" r:id="rId1"/>
     <sheet name="help_info" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -58,43 +58,67 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>3.抽奖券每天可使用1张，若当天未使用也会扣除一张，请及时使用。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.季卡礼包最高可获得&lt;color=#BD1C1CFF&gt;9亿&lt;/color&gt;金币价值奖励；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.季卡礼包购买后立即获得880万金币和90张抽奖券；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>500万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls_icon_hb1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.98万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>com_award_icon_yb2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3.抽奖券每天可使用1张，若当天未使用也会扣除一张，请及时使用。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.季卡礼包最高可获得&lt;color=#BD1C1CFF&gt;9亿&lt;/color&gt;金币价值奖励；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.季卡礼包购买后立即获得880万金币和90张抽奖券；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>45万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>50万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>500万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000万金币</t>
+    <t>pay_icon_gold8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万鱼币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -102,31 +126,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ls_icon_hb1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.98万福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_yxb_4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40万小游戏币</t>
+    <t>com_icon_yb</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +598,7 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="A2:D10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -649,10 +649,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="15"/>
@@ -670,10 +670,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="15"/>
@@ -691,10 +691,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="15"/>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="15"/>
@@ -733,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>7</v>
@@ -775,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="15"/>
@@ -796,10 +796,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="15"/>
@@ -817,10 +817,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="15"/>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1221,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1229,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_Release/jika_config.xlsx
+++ b/config_Release/jika_config.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="5" r:id="rId1"/>
-    <sheet name="help_info" sheetId="6" r:id="rId2"/>
+    <sheet name="base_cjj" sheetId="7" r:id="rId2"/>
+    <sheet name="help_info" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Index|序列</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -50,66 +51,102 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.抽奖券每天可使用1张，若当天未使用也会扣除一张，请及时使用。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.季卡礼包最高可获得&lt;color=#BD1C1CFF&gt;9亿&lt;/color&gt;金币价值奖励；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.季卡礼包购买后立即获得880万金币和90张抽奖券；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>500万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls_icon_hb1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.98万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_icon_yb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>com_award_icon_yb1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>pay_icon_gold3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>com_award_icon_hfsp</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3.抽奖券每天可使用1张，若当天未使用也会扣除一张，请及时使用。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.季卡礼包最高可获得&lt;color=#BD1C1CFF&gt;9亿&lt;/color&gt;金币价值奖励；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.季卡礼包购买后立即获得880万金币和90张抽奖券；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>45万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>50万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>500万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ls_icon_hb1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.98万福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>com_award_icon_yb2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -118,16 +155,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>30万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_icon_yb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_icon_yb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>40万小游戏币</t>
+  </si>
+  <si>
+    <t>45万小游戏币</t>
+  </si>
+  <si>
+    <t>60万小游戏币</t>
+  </si>
+  <si>
+    <t>500万小游戏币</t>
+  </si>
+  <si>
+    <t>30万小游戏币</t>
   </si>
 </sst>
 </file>
@@ -188,7 +228,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +245,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -267,7 +313,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +364,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -597,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,11 +705,11 @@
       <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>12</v>
+      <c r="C2" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="15"/>
@@ -670,10 +727,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="15"/>
@@ -690,11 +747,11 @@
       <c r="B4" s="17">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>13</v>
+      <c r="C4" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="15"/>
@@ -711,11 +768,11 @@
       <c r="B5" s="17">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>14</v>
+      <c r="C5" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="15"/>
@@ -732,11 +789,11 @@
       <c r="B6" s="17">
         <v>5</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>15</v>
+      <c r="C6" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="15"/>
@@ -757,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="15"/>
@@ -774,11 +831,11 @@
       <c r="B8" s="17">
         <v>7</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>16</v>
+      <c r="C8" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="15"/>
@@ -795,11 +852,11 @@
       <c r="B9" s="17">
         <v>8</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>17</v>
+      <c r="C9" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="15"/>
@@ -816,11 +873,11 @@
       <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>24</v>
+      <c r="C10" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="15"/>
@@ -1189,6 +1246,599 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="44.75" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="28.25" customWidth="1"/>
+    <col min="11" max="11" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="25.125" customWidth="1"/>
+    <col min="13" max="13" width="23.75" customWidth="1"/>
+    <col min="14" max="14" width="21.75" customWidth="1"/>
+    <col min="15" max="16" width="24.25" customWidth="1"/>
+    <col min="17" max="17" width="21.125" customWidth="1"/>
+    <col min="18" max="21" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
+        <v>9</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17">
+        <v>8</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="1048576" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F1048576" s="12">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1213,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1221,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1229,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_Release/jika_config.xlsx
+++ b/config_Release/jika_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Index|序列</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -168,6 +168,10 @@
   </si>
   <si>
     <t>30万小游戏币</t>
+  </si>
+  <si>
+    <t>4.若抽完90张抽奖券获得道具的金币价值加上880万金币之和小于1980万，则联系客服可再领取1980万金币。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -313,7 +317,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +379,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1248,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1841,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1883,8 +1890,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
